--- a/Annotations/Old/TheWayWeLiveNow.xlsx
+++ b/Annotations/Old/TheWayWeLiveNow.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14352" windowHeight="12852" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14352" windowHeight="12852"/>
   </bookViews>
   <sheets>
     <sheet name="TheWayWeLiveNowV2" sheetId="1" r:id="rId1"/>
@@ -2007,15 +2007,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P341"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H341" sqref="H341"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C344" sqref="C344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="3" width="53.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="48.88671875" style="3" customWidth="1"/>
     <col min="5" max="5" width="46.6640625" style="2" customWidth="1"/>
@@ -2077,7 +2077,7 @@
     <row r="2" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.14645032809063829</v>
+        <v>0.52296248477022889</v>
       </c>
       <c r="B2" s="2">
         <v>91</v>
@@ -2101,7 +2101,7 @@
     <row r="3" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25885987450430292</v>
+        <v>5.2368989393903109E-2</v>
       </c>
       <c r="B3" s="2">
         <v>292</v>
@@ -2125,7 +2125,7 @@
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4298352890188496</v>
+        <v>0.97456361529910296</v>
       </c>
       <c r="B4" s="2">
         <v>11</v>
@@ -2152,7 +2152,7 @@
     <row r="5" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64483886252292721</v>
+        <v>0.13221035571821338</v>
       </c>
       <c r="B5" s="2">
         <v>230</v>
@@ -2176,7 +2176,7 @@
     <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56899549347756251</v>
+        <v>0.21765143893305805</v>
       </c>
       <c r="B6" s="2">
         <v>182</v>
@@ -2197,7 +2197,7 @@
     <row r="7" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7109927291780309E-2</v>
+        <v>0.12545688068297467</v>
       </c>
       <c r="B7" s="2">
         <v>264</v>
@@ -2224,7 +2224,7 @@
     <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67474123180312529</v>
+        <v>0.20208150995955287</v>
       </c>
       <c r="B8" s="2">
         <v>260</v>
@@ -2248,7 +2248,7 @@
     <row r="9" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66766438257727612</v>
+        <v>0.93681789196676601</v>
       </c>
       <c r="B9" s="2">
         <v>248</v>
@@ -2272,7 +2272,7 @@
     <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26112295055388146</v>
+        <v>0.86361980363872648</v>
       </c>
       <c r="B10" s="2">
         <v>141</v>
@@ -2296,7 +2296,7 @@
     <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3460947248924056E-2</v>
+        <v>0.26129365871412058</v>
       </c>
       <c r="B11" s="2">
         <v>157</v>
@@ -2326,7 +2326,7 @@
     <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73263060268074265</v>
+        <v>8.6327311192318179E-2</v>
       </c>
       <c r="B12" s="2">
         <v>23</v>
@@ -2347,7 +2347,7 @@
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2766348664421461E-2</v>
+        <v>0.5252680484549811</v>
       </c>
       <c r="B13" s="2">
         <v>14</v>
@@ -2374,7 +2374,7 @@
     <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88459367714695147</v>
+        <v>0.91609728652377553</v>
       </c>
       <c r="B14" s="2">
         <v>118</v>
@@ -2398,7 +2398,7 @@
     <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98689458543736064</v>
+        <v>0.33941553543980152</v>
       </c>
       <c r="B15" s="2">
         <v>301</v>
@@ -2422,7 +2422,7 @@
     <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88108427914733489</v>
+        <v>0.9741973705817436</v>
       </c>
       <c r="B16" s="2">
         <v>167</v>
@@ -2446,7 +2446,7 @@
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55458703574966539</v>
+        <v>0.17273173745805348</v>
       </c>
       <c r="B17" s="2">
         <v>66</v>
@@ -2470,7 +2470,7 @@
     <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55749418426706088</v>
+        <v>0.61477227272510959</v>
       </c>
       <c r="B18" s="2">
         <v>247</v>
@@ -2494,7 +2494,7 @@
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97403360270197747</v>
+        <v>0.83934915640887586</v>
       </c>
       <c r="B19" s="2">
         <v>318</v>
@@ -2518,7 +2518,7 @@
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42528029337644802</v>
+        <v>5.7873240775523915E-2</v>
       </c>
       <c r="B20" s="2">
         <v>181</v>
@@ -2539,7 +2539,7 @@
     <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62700521206694215</v>
+        <v>0.70717171528817246</v>
       </c>
       <c r="B21" s="2">
         <v>265</v>
@@ -2560,7 +2560,7 @@
     <row r="22" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1072341529472195</v>
+        <v>0.77368209180396164</v>
       </c>
       <c r="B22" s="2">
         <v>92</v>
@@ -2584,7 +2584,7 @@
     <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69783898011694256</v>
+        <v>0.75744591330733568</v>
       </c>
       <c r="B23" s="2">
         <v>281</v>
@@ -2611,7 +2611,7 @@
     <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35522666063100738</v>
+        <v>0.50453925236646169</v>
       </c>
       <c r="B24" s="2">
         <v>94</v>
@@ -2635,7 +2635,7 @@
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14251650556056239</v>
+        <v>0.64593783211535827</v>
       </c>
       <c r="B25" s="2">
         <v>160</v>
@@ -2662,7 +2662,7 @@
     <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32147999517038606</v>
+        <v>0.19117985661410886</v>
       </c>
       <c r="B26" s="2">
         <v>309</v>
@@ -2686,7 +2686,7 @@
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4447790179331963E-2</v>
+        <v>0.14004610896453418</v>
       </c>
       <c r="B27" s="2">
         <v>242</v>
@@ -2710,7 +2710,7 @@
     <row r="28" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77341812009658162</v>
+        <v>0.13094784068216303</v>
       </c>
       <c r="B28" s="2">
         <v>127</v>
@@ -2734,7 +2734,7 @@
     <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82155354747378906</v>
+        <v>0.28480967634353704</v>
       </c>
       <c r="B29" s="2">
         <v>97</v>
@@ -2758,7 +2758,7 @@
     <row r="30" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90097458422027377</v>
+        <v>0.28446954992285844</v>
       </c>
       <c r="B30" s="2">
         <v>54</v>
@@ -2782,7 +2782,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.748522189727024</v>
+        <v>0.88850033587117061</v>
       </c>
       <c r="B31" s="2">
         <v>29</v>
@@ -2803,7 +2803,7 @@
     <row r="32" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60262918883642358</v>
+        <v>0.80389374039548311</v>
       </c>
       <c r="B32" s="2">
         <v>333</v>
@@ -2827,7 +2827,7 @@
     <row r="33" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52523974350202907</v>
+        <v>5.91835235391861E-2</v>
       </c>
       <c r="B33" s="2">
         <v>40</v>
@@ -2851,7 +2851,7 @@
     <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56086416148981266</v>
+        <v>0.93832498839449097</v>
       </c>
       <c r="B34" s="2">
         <v>293</v>
@@ -2875,7 +2875,7 @@
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96463996169667698</v>
+        <v>0.94003952151668901</v>
       </c>
       <c r="B35" s="2">
         <v>56</v>
@@ -2896,7 +2896,7 @@
     <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4458600865079179E-2</v>
+        <v>7.9293236260147837E-2</v>
       </c>
       <c r="B36" s="2">
         <v>35</v>
@@ -2923,7 +2923,7 @@
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78922705864092502</v>
+        <v>0.90713334798731138</v>
       </c>
       <c r="B37" s="2">
         <v>273</v>
@@ -2950,7 +2950,7 @@
     <row r="38" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53717137621199351</v>
+        <v>0.82930364710572746</v>
       </c>
       <c r="B38" s="2">
         <v>136</v>
@@ -2971,7 +2971,7 @@
     <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35440204598044422</v>
+        <v>0.46238721269311212</v>
       </c>
       <c r="B39" s="2">
         <v>63</v>
@@ -2998,7 +2998,7 @@
     <row r="40" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70638462710075323</v>
+        <v>0.80292349952363529</v>
       </c>
       <c r="B40" s="2">
         <v>191</v>
@@ -3025,7 +3025,7 @@
     <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39867223948484909</v>
+        <v>0.68257303065587271</v>
       </c>
       <c r="B41" s="2">
         <v>268</v>
@@ -3049,7 +3049,7 @@
     <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32736809487816165</v>
+        <v>0.74492761917027472</v>
       </c>
       <c r="B42" s="2">
         <v>52</v>
@@ -3076,7 +3076,7 @@
     <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55164011846795324</v>
+        <v>0.40530923217692516</v>
       </c>
       <c r="B43" s="2">
         <v>32</v>
@@ -3100,7 +3100,7 @@
     <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90539130211751617</v>
+        <v>0.57727158127808764</v>
       </c>
       <c r="B44" s="2">
         <v>332</v>
@@ -3124,7 +3124,7 @@
     <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61792073130302838</v>
+        <v>0.57444233846161064</v>
       </c>
       <c r="B45" s="2">
         <v>130</v>
@@ -3145,7 +3145,7 @@
     <row r="46" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10548074627684501</v>
+        <v>0.42558486924915062</v>
       </c>
       <c r="B46" s="2">
         <v>305</v>
@@ -3169,7 +3169,7 @@
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63929043066173674</v>
+        <v>0.70364579006571337</v>
       </c>
       <c r="B47" s="2">
         <v>84</v>
@@ -3193,7 +3193,7 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35091418068833569</v>
+        <v>0.75120774944655144</v>
       </c>
       <c r="B48" s="2">
         <v>68</v>
@@ -3214,7 +3214,7 @@
     <row r="49" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19635233623660786</v>
+        <v>0.84161793615677427</v>
       </c>
       <c r="B49" s="2">
         <v>240</v>
@@ -3238,7 +3238,7 @@
     <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9232128530737755E-2</v>
+        <v>0.84933487164555876</v>
       </c>
       <c r="B50" s="2">
         <v>236</v>
@@ -3262,7 +3262,7 @@
     <row r="51" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48283084250588149</v>
+        <v>0.30683777005079049</v>
       </c>
       <c r="B51" s="2">
         <v>170</v>
@@ -3286,7 +3286,7 @@
     <row r="52" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56436034554544434</v>
+        <v>0.96084725210257438</v>
       </c>
       <c r="B52" s="2">
         <v>5</v>
@@ -3307,7 +3307,7 @@
     <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8047775079562123E-2</v>
+        <v>0.90575725139644836</v>
       </c>
       <c r="B53" s="2">
         <v>317</v>
@@ -3331,7 +3331,7 @@
     <row r="54" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27790191970755362</v>
+        <v>0.92966337876281624</v>
       </c>
       <c r="B54" s="2">
         <v>151</v>
@@ -3358,7 +3358,7 @@
     <row r="55" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47090777431421882</v>
+        <v>0.52027856341848633</v>
       </c>
       <c r="B55" s="2">
         <v>155</v>
@@ -3382,7 +3382,7 @@
     <row r="56" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92498485439385081</v>
+        <v>0.95208470730458283</v>
       </c>
       <c r="B56" s="2">
         <v>44</v>
@@ -3406,7 +3406,7 @@
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31166881442942251</v>
+        <v>0.2676857481109276</v>
       </c>
       <c r="B57" s="2">
         <v>201</v>
@@ -3430,7 +3430,7 @@
     <row r="58" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99959795734583845</v>
+        <v>0.5352571320740932</v>
       </c>
       <c r="B58" s="2">
         <v>255</v>
@@ -3454,7 +3454,7 @@
     <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39970798091172721</v>
+        <v>9.5398943422196458E-2</v>
       </c>
       <c r="B59" s="2">
         <v>193</v>
@@ -3478,7 +3478,7 @@
     <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28329966605217105</v>
+        <v>9.5184254546116454E-2</v>
       </c>
       <c r="B60" s="2">
         <v>76</v>
@@ -3502,7 +3502,7 @@
     <row r="61" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94318765841213481</v>
+        <v>0.52871199179584705</v>
       </c>
       <c r="B61" s="2">
         <v>149</v>
@@ -3526,7 +3526,7 @@
     <row r="62" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88747763852889161</v>
+        <v>0.79763984077416394</v>
       </c>
       <c r="B62" s="2">
         <v>215</v>
@@ -3550,7 +3550,7 @@
     <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28645832059983789</v>
+        <v>0.42459230517583135</v>
       </c>
       <c r="B63" s="2">
         <v>31</v>
@@ -3574,7 +3574,7 @@
     <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92958997198475568</v>
+        <v>8.2058962799083868E-2</v>
       </c>
       <c r="B64" s="2">
         <v>221</v>
@@ -3601,7 +3601,7 @@
     <row r="65" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53798286825047525</v>
+        <v>0.7929475412570659</v>
       </c>
       <c r="B65" s="2">
         <v>263</v>
@@ -3628,7 +3628,7 @@
     <row r="66" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.69318132067584037</v>
+        <v>0.32917977240461616</v>
       </c>
       <c r="B66" s="2">
         <v>116</v>
@@ -3652,7 +3652,7 @@
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55863017213390809</v>
+        <v>0.87748273123798004</v>
       </c>
       <c r="B67" s="2">
         <v>64</v>
@@ -3676,7 +3676,7 @@
     <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4632903364858616E-2</v>
+        <v>8.2098467149047338E-2</v>
       </c>
       <c r="B68" s="2">
         <v>46</v>
@@ -3700,7 +3700,7 @@
     <row r="69" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91441673858974903</v>
+        <v>0.69139940542300549</v>
       </c>
       <c r="B69" s="2">
         <v>320</v>
@@ -3721,7 +3721,7 @@
     <row r="70" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87119082615526744</v>
+        <v>0.71011383609298506</v>
       </c>
       <c r="B70" s="2">
         <v>192</v>
@@ -3745,7 +3745,7 @@
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1127756306500496E-2</v>
+        <v>0.81084900942123983</v>
       </c>
       <c r="B71" s="2">
         <v>307</v>
@@ -3769,7 +3769,7 @@
     <row r="72" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97230851226051995</v>
+        <v>0.89034076982681321</v>
       </c>
       <c r="B72" s="2">
         <v>339</v>
@@ -3796,7 +3796,7 @@
     <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54398353982420744</v>
+        <v>0.74858038993632992</v>
       </c>
       <c r="B73" s="2">
         <v>7</v>
@@ -3817,7 +3817,7 @@
     <row r="74" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19480638298550201</v>
+        <v>0.35222407178749382</v>
       </c>
       <c r="B74" s="2">
         <v>261</v>
@@ -3844,7 +3844,7 @@
     <row r="75" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20418880985455301</v>
+        <v>0.95000166298084698</v>
       </c>
       <c r="B75" s="2">
         <v>184</v>
@@ -3868,7 +3868,7 @@
     <row r="76" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77779184527521494</v>
+        <v>0.39421216283288318</v>
       </c>
       <c r="B76" s="2">
         <v>98</v>
@@ -3892,7 +3892,7 @@
     <row r="77" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75316872380017319</v>
+        <v>0.27902234443633667</v>
       </c>
       <c r="B77" s="2">
         <v>206</v>
@@ -3916,7 +3916,7 @@
     <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47870366822856325</v>
+        <v>0.31420759080227523</v>
       </c>
       <c r="B78" s="2">
         <v>28</v>
@@ -3937,7 +3937,7 @@
     <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7815015825181311E-2</v>
+        <v>0.7468206197399756</v>
       </c>
       <c r="B79" s="2">
         <v>57</v>
@@ -3964,7 +3964,7 @@
     <row r="80" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55431464727807844</v>
+        <v>0.59912805218281606</v>
       </c>
       <c r="B80" s="2">
         <v>327</v>
@@ -3988,7 +3988,7 @@
     <row r="81" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31684462142379832</v>
+        <v>0.57318094659020125</v>
       </c>
       <c r="B81" s="2">
         <v>239</v>
@@ -4012,7 +4012,7 @@
     <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54708278705487967</v>
+        <v>0.86298717143224191</v>
       </c>
       <c r="B82" s="2">
         <v>108</v>
@@ -4036,7 +4036,7 @@
     <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7448489567862406E-2</v>
+        <v>0.24607708651025029</v>
       </c>
       <c r="B83" s="2">
         <v>95</v>
@@ -4060,7 +4060,7 @@
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69060785399819125</v>
+        <v>2.9069007643647282E-3</v>
       </c>
       <c r="B84" s="2">
         <v>106</v>
@@ -4081,7 +4081,7 @@
     <row r="85" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93980997922782894</v>
+        <v>0.24243470098818398</v>
       </c>
       <c r="B85" s="2">
         <v>163</v>
@@ -4108,7 +4108,7 @@
     <row r="86" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92186551750151524</v>
+        <v>0.50355226447735102</v>
       </c>
       <c r="B86" s="2">
         <v>135</v>
@@ -4129,7 +4129,7 @@
     <row r="87" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6528506322497583E-2</v>
+        <v>5.173243717535736E-2</v>
       </c>
       <c r="B87" s="2">
         <v>279</v>
@@ -4156,7 +4156,7 @@
     <row r="88" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40704326889190501</v>
+        <v>0.47788659702853142</v>
       </c>
       <c r="B88" s="2">
         <v>324</v>
@@ -4180,7 +4180,7 @@
     <row r="89" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79633010234507373</v>
+        <v>9.39982203918861E-2</v>
       </c>
       <c r="B89" s="2">
         <v>110</v>
@@ -4204,7 +4204,7 @@
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48579590279357632</v>
+        <v>0.95185793692428977</v>
       </c>
       <c r="B90" s="2">
         <v>166</v>
@@ -4225,7 +4225,7 @@
     <row r="91" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3001952969321215E-2</v>
+        <v>0.69155534395119966</v>
       </c>
       <c r="B91" s="2">
         <v>176</v>
@@ -4249,7 +4249,7 @@
     <row r="92" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67751286591297855</v>
+        <v>0.99012867783238412</v>
       </c>
       <c r="B92" s="2">
         <v>288</v>
@@ -4273,7 +4273,7 @@
     <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.576956793561759</v>
+        <v>0.15787679979305924</v>
       </c>
       <c r="B93" s="2">
         <v>83</v>
@@ -4294,7 +4294,7 @@
     <row r="94" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4425926707112896</v>
+        <v>0.55850311457682877</v>
       </c>
       <c r="B94" s="2">
         <v>338</v>
@@ -4318,7 +4318,7 @@
     <row r="95" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98367420764932179</v>
+        <v>0.77894379864529706</v>
       </c>
       <c r="B95" s="2">
         <v>294</v>
@@ -4342,7 +4342,7 @@
     <row r="96" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6953620632099804</v>
+        <v>0.72038392534474016</v>
       </c>
       <c r="B96" s="2">
         <v>306</v>
@@ -4366,7 +4366,7 @@
     <row r="97" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96284194740671103</v>
+        <v>0.78914810367335086</v>
       </c>
       <c r="B97" s="2">
         <v>196</v>
@@ -4390,7 +4390,7 @@
     <row r="98" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7276093621573928</v>
+        <v>0.96782292343858156</v>
       </c>
       <c r="B98" s="2">
         <v>105</v>
@@ -4417,7 +4417,7 @@
     <row r="99" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98544361502615474</v>
+        <v>0.30129315925887057</v>
       </c>
       <c r="B99" s="2">
         <v>297</v>
@@ -4441,7 +4441,7 @@
     <row r="100" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78271917198256147</v>
+        <v>0.57138928596243532</v>
       </c>
       <c r="B100" s="2">
         <v>144</v>
@@ -4465,7 +4465,7 @@
     <row r="101" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87463353996409376</v>
+        <v>0.54388200125300501</v>
       </c>
       <c r="B101" s="2">
         <v>45</v>
@@ -4489,7 +4489,7 @@
     <row r="102" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7643210638854505E-2</v>
+        <v>0.30059158608639047</v>
       </c>
       <c r="B102" s="2">
         <v>208</v>
@@ -4513,7 +4513,7 @@
     <row r="103" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23902065430593589</v>
+        <v>0.46897325845376203</v>
       </c>
       <c r="B103" s="2">
         <v>326</v>
@@ -4537,7 +4537,7 @@
     <row r="104" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5916903691803714E-2</v>
+        <v>0.95712325910754859</v>
       </c>
       <c r="B104" s="2">
         <v>302</v>
@@ -4561,7 +4561,7 @@
     <row r="105" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86153785182113396</v>
+        <v>0.53285797328095375</v>
       </c>
       <c r="B105" s="2">
         <v>20</v>
@@ -4585,7 +4585,7 @@
     <row r="106" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57274785199974487</v>
+        <v>0.12857660626219747</v>
       </c>
       <c r="B106" s="2">
         <v>8</v>
@@ -4612,7 +4612,7 @@
     <row r="107" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3981726858600585</v>
+        <v>7.2789094469405735E-2</v>
       </c>
       <c r="B107" s="2">
         <v>225</v>
@@ -4636,7 +4636,7 @@
     <row r="108" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59409948538715918</v>
+        <v>0.33072486531597023</v>
       </c>
       <c r="B108" s="2">
         <v>24</v>
@@ -4657,7 +4657,7 @@
     <row r="109" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98785235576694508</v>
+        <v>0.3444866699981477</v>
       </c>
       <c r="B109" s="2">
         <v>337</v>
@@ -4681,7 +4681,7 @@
     <row r="110" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31244011550818784</v>
+        <v>7.6291493560155521E-2</v>
       </c>
       <c r="B110" s="2">
         <v>169</v>
@@ -4705,7 +4705,7 @@
     <row r="111" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17687063461530372</v>
+        <v>0.90464153261225722</v>
       </c>
       <c r="B111" s="2">
         <v>262</v>
@@ -4735,7 +4735,7 @@
     <row r="112" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95636351111012219</v>
+        <v>0.41507081467831852</v>
       </c>
       <c r="B112" s="2">
         <v>22</v>
@@ -4762,7 +4762,7 @@
     <row r="113" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97506862489188817</v>
+        <v>0.31647553906672232</v>
       </c>
       <c r="B113" s="2">
         <v>278</v>
@@ -4786,7 +4786,7 @@
     <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39875090482752862</v>
+        <v>0.20653704811340134</v>
       </c>
       <c r="B114" s="2">
         <v>119</v>
@@ -4810,7 +4810,7 @@
     <row r="115" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48618762418264505</v>
+        <v>0.49520805309813398</v>
       </c>
       <c r="B115" s="2">
         <v>111</v>
@@ -4837,7 +4837,7 @@
     <row r="116" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42526052719239427</v>
+        <v>0.33876246175117808</v>
       </c>
       <c r="B116" s="2">
         <v>128</v>
@@ -4858,7 +4858,7 @@
     <row r="117" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10146641990516969</v>
+        <v>0.4402812986097504</v>
       </c>
       <c r="B117" s="2">
         <v>298</v>
@@ -4882,7 +4882,7 @@
     <row r="118" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84822151823546466</v>
+        <v>0.12615755522457883</v>
       </c>
       <c r="B118" s="2">
         <v>161</v>
@@ -4903,7 +4903,7 @@
     <row r="119" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27820983119397436</v>
+        <v>0.62829077906355479</v>
       </c>
       <c r="B119" s="2">
         <v>322</v>
@@ -4927,7 +4927,7 @@
     <row r="120" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3873105009535238E-2</v>
+        <v>0.80502289409789718</v>
       </c>
       <c r="B120" s="2">
         <v>312</v>
@@ -4954,7 +4954,7 @@
     <row r="121" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.095653721686614E-2</v>
+        <v>0.53970608807975107</v>
       </c>
       <c r="B121" s="2">
         <v>313</v>
@@ -4981,7 +4981,7 @@
     <row r="122" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10113955909727879</v>
+        <v>0.94273416010065725</v>
       </c>
       <c r="B122" s="2">
         <v>213</v>
@@ -5008,7 +5008,7 @@
     <row r="123" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8801434478579464</v>
+        <v>0.93071943861268058</v>
       </c>
       <c r="B123" s="2">
         <v>285</v>
@@ -5032,7 +5032,7 @@
     <row r="124" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5257451264641565</v>
+        <v>0.21534317604880737</v>
       </c>
       <c r="B124" s="2">
         <v>186</v>
@@ -5056,7 +5056,7 @@
     <row r="125" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60738606813337692</v>
+        <v>0.49193112038682707</v>
       </c>
       <c r="B125" s="2">
         <v>282</v>
@@ -5080,7 +5080,7 @@
     <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51897837086466003</v>
+        <v>0.11643267205026298</v>
       </c>
       <c r="B126" s="2">
         <v>71</v>
@@ -5104,7 +5104,7 @@
     <row r="127" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48799705742119481</v>
+        <v>0.86120310085125107</v>
       </c>
       <c r="B127" s="2">
         <v>188</v>
@@ -5128,7 +5128,7 @@
     <row r="128" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.077286419350957E-2</v>
+        <v>0.13063026394318522</v>
       </c>
       <c r="B128" s="2">
         <v>270</v>
@@ -5152,7 +5152,7 @@
     <row r="129" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30140829153597204</v>
+        <v>0.84141285312382819</v>
       </c>
       <c r="B129" s="2">
         <v>331</v>
@@ -5176,7 +5176,7 @@
     <row r="130" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.60382511513646775</v>
+        <v>3.6212635099930335E-2</v>
       </c>
       <c r="B130" s="2">
         <v>214</v>
@@ -5203,7 +5203,7 @@
     <row r="131" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62155903879599272</v>
+        <v>0.65911143484180346</v>
       </c>
       <c r="B131" s="2">
         <v>185</v>
@@ -5227,7 +5227,7 @@
     <row r="132" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86020995317870352</v>
+        <v>0.16381910631406615</v>
       </c>
       <c r="B132" s="2">
         <v>123</v>
@@ -5248,7 +5248,7 @@
     <row r="133" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55903103712752122</v>
+        <v>5.6726170867161474E-2</v>
       </c>
       <c r="B133" s="2">
         <v>340</v>
@@ -5278,7 +5278,7 @@
     <row r="134" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29927458459664147</v>
+        <v>0.63211329868057375</v>
       </c>
       <c r="B134" s="2">
         <v>19</v>
@@ -5305,7 +5305,7 @@
     <row r="135" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92337338454398776</v>
+        <v>1.4668713687516433E-2</v>
       </c>
       <c r="B135" s="2">
         <v>75</v>
@@ -5329,7 +5329,7 @@
     <row r="136" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3899060828226979</v>
+        <v>0.52630792867220977</v>
       </c>
       <c r="B136" s="2">
         <v>13</v>
@@ -5353,7 +5353,7 @@
     <row r="137" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87455584168499767</v>
+        <v>0.23570201967350246</v>
       </c>
       <c r="B137" s="2">
         <v>197</v>
@@ -5377,7 +5377,7 @@
     <row r="138" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74133044232478107</v>
+        <v>0.71654116056331107</v>
       </c>
       <c r="B138" s="2">
         <v>304</v>
@@ -5404,7 +5404,7 @@
     <row r="139" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7639262186493143E-2</v>
+        <v>0.52344423191130052</v>
       </c>
       <c r="B139" s="2">
         <v>274</v>
@@ -5425,7 +5425,7 @@
     <row r="140" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48871935610713713</v>
+        <v>0.88832105155678187</v>
       </c>
       <c r="B140" s="2">
         <v>145</v>
@@ -5449,7 +5449,7 @@
     <row r="141" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19832394139332699</v>
+        <v>0.164383848502621</v>
       </c>
       <c r="B141" s="2">
         <v>228</v>
@@ -5473,7 +5473,7 @@
     <row r="142" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9874462786901579E-2</v>
+        <v>0.52067927679144155</v>
       </c>
       <c r="B142" s="2">
         <v>26</v>
@@ -5497,7 +5497,7 @@
     <row r="143" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34909584132019944</v>
+        <v>8.0721222235592083E-2</v>
       </c>
       <c r="B143" s="2">
         <v>132</v>
@@ -5518,7 +5518,7 @@
     <row r="144" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33520362521296709</v>
+        <v>0.79068587075882002</v>
       </c>
       <c r="B144" s="2">
         <v>330</v>
@@ -5542,7 +5542,7 @@
     <row r="145" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2628291179862724</v>
+        <v>1.3118142749685147E-2</v>
       </c>
       <c r="B145" s="2">
         <v>10</v>
@@ -5569,7 +5569,7 @@
     <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31785864686726728</v>
+        <v>0.87613676579804545</v>
       </c>
       <c r="B146" s="2">
         <v>73</v>
@@ -5593,7 +5593,7 @@
     <row r="147" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83983003794180411</v>
+        <v>5.446534169176942E-2</v>
       </c>
       <c r="B147" s="2">
         <v>266</v>
@@ -5617,7 +5617,7 @@
     <row r="148" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91242218247987705</v>
+        <v>0.46346358974572943</v>
       </c>
       <c r="B148" s="2">
         <v>96</v>
@@ -5641,7 +5641,7 @@
     <row r="149" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5512020381836567E-2</v>
+        <v>0.18758161203177359</v>
       </c>
       <c r="B149" s="2">
         <v>74</v>
@@ -5665,7 +5665,7 @@
     <row r="150" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38394996007631077</v>
+        <v>0.67840404376817498</v>
       </c>
       <c r="B150" s="2">
         <v>16</v>
@@ -5689,7 +5689,7 @@
     <row r="151" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96415174516560442</v>
+        <v>0.91760536029080353</v>
       </c>
       <c r="B151" s="2">
         <v>99</v>
@@ -5713,7 +5713,7 @@
     <row r="152" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20507993948271164</v>
+        <v>0.27099650876044068</v>
       </c>
       <c r="B152" s="2">
         <v>334</v>
@@ -5740,7 +5740,7 @@
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85352540399730825</v>
+        <v>0.74407350100455905</v>
       </c>
       <c r="B153" s="2">
         <v>271</v>
@@ -5764,7 +5764,7 @@
     <row r="154" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95193686927638343</v>
+        <v>0.58446240054313936</v>
       </c>
       <c r="B154" s="2">
         <v>235</v>
@@ -5788,7 +5788,7 @@
     <row r="155" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29169915956196824</v>
+        <v>0.13418761277899538</v>
       </c>
       <c r="B155" s="2">
         <v>194</v>
@@ -5812,7 +5812,7 @@
     <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98805646524151458</v>
+        <v>0.77504617838446688</v>
       </c>
       <c r="B156" s="2">
         <v>39</v>
@@ -5836,7 +5836,7 @@
     <row r="157" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21247342790899282</v>
+        <v>0.91478379750675887</v>
       </c>
       <c r="B157" s="2">
         <v>150</v>
@@ -5860,7 +5860,7 @@
     <row r="158" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54122770062227699</v>
+        <v>0.2147659766634068</v>
       </c>
       <c r="B158" s="2">
         <v>256</v>
@@ -5887,7 +5887,7 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88619819612573469</v>
+        <v>0.60934429872067608</v>
       </c>
       <c r="B159" s="2">
         <v>199</v>
@@ -5911,7 +5911,7 @@
     <row r="160" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20283341765070229</v>
+        <v>0.53643628174934943</v>
       </c>
       <c r="B160" s="2">
         <v>162</v>
@@ -5935,7 +5935,7 @@
     <row r="161" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46906274042988771</v>
+        <v>0.29719753572791718</v>
       </c>
       <c r="B161" s="2">
         <v>229</v>
@@ -5959,7 +5959,7 @@
     <row r="162" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73285594211351213</v>
+        <v>0.79102295862106675</v>
       </c>
       <c r="B162" s="2">
         <v>4</v>
@@ -5983,7 +5983,7 @@
     <row r="163" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50347778382027653</v>
+        <v>0.30684305683676616</v>
       </c>
       <c r="B163" s="2">
         <v>158</v>
@@ -6010,7 +6010,7 @@
     <row r="164" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91073569803794541</v>
+        <v>0.12041714777565304</v>
       </c>
       <c r="B164" s="2">
         <v>237</v>
@@ -6034,7 +6034,7 @@
     <row r="165" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1583416843687756</v>
+        <v>0.91061441637909857</v>
       </c>
       <c r="B165" s="2">
         <v>212</v>
@@ -6058,7 +6058,7 @@
     <row r="166" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25933203745015665</v>
+        <v>0.13475371160222194</v>
       </c>
       <c r="B166" s="2">
         <v>232</v>
@@ -6082,7 +6082,7 @@
     <row r="167" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71202775937768881</v>
+        <v>0.90341519654937275</v>
       </c>
       <c r="B167" s="2">
         <v>243</v>
@@ -6109,7 +6109,7 @@
     <row r="168" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73033380204112475</v>
+        <v>0.99735061915739087</v>
       </c>
       <c r="B168" s="2">
         <v>259</v>
@@ -6130,7 +6130,7 @@
     <row r="169" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8845287722711794E-2</v>
+        <v>0.57921436132884296</v>
       </c>
       <c r="B169" s="2">
         <v>175</v>
@@ -6154,7 +6154,7 @@
     <row r="170" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43492696000355036</v>
+        <v>0.37642264623162824</v>
       </c>
       <c r="B170" s="2">
         <v>70</v>
@@ -6178,7 +6178,7 @@
     <row r="171" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74236970118568557</v>
+        <v>0.67921799216945788</v>
       </c>
       <c r="B171" s="2">
         <v>53</v>
@@ -6202,7 +6202,7 @@
     <row r="172" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28893886621933051</v>
+        <v>0.84996220719618909</v>
       </c>
       <c r="B172" s="2">
         <v>178</v>
@@ -6226,7 +6226,7 @@
     <row r="173" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54458707336427514</v>
+        <v>0.58806340335821561</v>
       </c>
       <c r="B173" s="2">
         <v>89</v>
@@ -6247,7 +6247,7 @@
     <row r="174" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74668168464544471</v>
+        <v>0.95583157130733398</v>
       </c>
       <c r="B174" s="2">
         <v>69</v>
@@ -6268,7 +6268,7 @@
     <row r="175" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12453749051015284</v>
+        <v>7.6795663946127579E-2</v>
       </c>
       <c r="B175" s="2">
         <v>93</v>
@@ -6292,7 +6292,7 @@
     <row r="176" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24242880525551136</v>
+        <v>0.4807409029665537</v>
       </c>
       <c r="B176" s="2">
         <v>101</v>
@@ -6322,7 +6322,7 @@
     <row r="177" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71219481517158556</v>
+        <v>0.23427171109711209</v>
       </c>
       <c r="B177" s="2">
         <v>216</v>
@@ -6346,7 +6346,7 @@
     <row r="178" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20678154705051188</v>
+        <v>0.88308423841673767</v>
       </c>
       <c r="B178" s="2">
         <v>1</v>
@@ -6370,7 +6370,7 @@
     <row r="179" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91004993401845413</v>
+        <v>0.95719683229656849</v>
       </c>
       <c r="B179" s="2">
         <v>113</v>
@@ -6394,7 +6394,7 @@
     <row r="180" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5059846565215018E-2</v>
+        <v>0.24156625607422577</v>
       </c>
       <c r="B180" s="2">
         <v>234</v>
@@ -6418,7 +6418,7 @@
     <row r="181" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67569700622030371</v>
+        <v>0.41314249709348771</v>
       </c>
       <c r="B181" s="2">
         <v>60</v>
@@ -6439,7 +6439,7 @@
     <row r="182" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9229343906989111E-2</v>
+        <v>0.23328015547517578</v>
       </c>
       <c r="B182" s="2">
         <v>55</v>
@@ -6466,7 +6466,7 @@
     <row r="183" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16724088032406303</v>
+        <v>0.34965610784994083</v>
       </c>
       <c r="B183" s="2">
         <v>164</v>
@@ -6487,7 +6487,7 @@
     <row r="184" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76679808031574714</v>
+        <v>0.41730439309029965</v>
       </c>
       <c r="B184" s="2">
         <v>222</v>
@@ -6514,7 +6514,7 @@
     <row r="185" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59758098864553066</v>
+        <v>0.81302023592792194</v>
       </c>
       <c r="B185" s="2">
         <v>153</v>
@@ -6538,7 +6538,7 @@
     <row r="186" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33115466191544884</v>
+        <v>0.9614504591065911</v>
       </c>
       <c r="B186" s="2">
         <v>204</v>
@@ -6562,7 +6562,7 @@
     <row r="187" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34221078016850093</v>
+        <v>0.92860267846072075</v>
       </c>
       <c r="B187" s="2">
         <v>209</v>
@@ -6586,7 +6586,7 @@
     <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37544388011987528</v>
+        <v>0.62587266046964773</v>
       </c>
       <c r="B188" s="2">
         <v>336</v>
@@ -6607,7 +6607,7 @@
     <row r="189" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9315221422841905</v>
+        <v>0.70847524787420391</v>
       </c>
       <c r="B189" s="2">
         <v>58</v>
@@ -6631,7 +6631,7 @@
     <row r="190" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99176336903307361</v>
+        <v>0.95975642503582581</v>
       </c>
       <c r="B190" s="2">
         <v>296</v>
@@ -6655,7 +6655,7 @@
     <row r="191" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15252872657246885</v>
+        <v>0.7462264797888738</v>
       </c>
       <c r="B191" s="2">
         <v>187</v>
@@ -6679,7 +6679,7 @@
     <row r="192" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83530647639845634</v>
+        <v>0.59893224231391373</v>
       </c>
       <c r="B192" s="2">
         <v>80</v>
@@ -6706,7 +6706,7 @@
     <row r="193" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6316580883893823E-2</v>
+        <v>0.42534079843951256</v>
       </c>
       <c r="B193" s="2">
         <v>245</v>
@@ -6733,7 +6733,7 @@
     <row r="194" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.24989925803354229</v>
+        <v>0.66494225867717571</v>
       </c>
       <c r="B194" s="2">
         <v>103</v>
@@ -6757,7 +6757,7 @@
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92820967620278982</v>
+        <v>0.24702422511210409</v>
       </c>
       <c r="B195" s="2">
         <v>30</v>
@@ -6778,7 +6778,7 @@
     <row r="196" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55313962730918742</v>
+        <v>0.29319844694347386</v>
       </c>
       <c r="B196" s="2">
         <v>165</v>
@@ -6799,7 +6799,7 @@
     <row r="197" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4506048507968512</v>
+        <v>0.54391233339992495</v>
       </c>
       <c r="B197" s="2">
         <v>179</v>
@@ -6823,7 +6823,7 @@
     <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95975739004626537</v>
+        <v>4.2755791418005451E-2</v>
       </c>
       <c r="B198" s="2">
         <v>67</v>
@@ -6847,7 +6847,7 @@
     <row r="199" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63512739680731212</v>
+        <v>0.3969008791100086</v>
       </c>
       <c r="B199" s="2">
         <v>289</v>
@@ -6871,7 +6871,7 @@
     <row r="200" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42362630053019668</v>
+        <v>0.76910420445349637</v>
       </c>
       <c r="B200" s="2">
         <v>211</v>
@@ -6895,7 +6895,7 @@
     <row r="201" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96572383372018322</v>
+        <v>0.1272694529648698</v>
       </c>
       <c r="B201" s="2">
         <v>42</v>
@@ -6916,7 +6916,7 @@
     <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65135022067659576</v>
+        <v>0.98796875245697513</v>
       </c>
       <c r="B202" s="2">
         <v>180</v>
@@ -6940,7 +6940,7 @@
     <row r="203" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24550659045479784</v>
+        <v>0.16196116170569863</v>
       </c>
       <c r="B203" s="2">
         <v>104</v>
@@ -6967,7 +6967,7 @@
     <row r="204" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89525067616976695</v>
+        <v>0.43188424334950848</v>
       </c>
       <c r="B204" s="2">
         <v>38</v>
@@ -6991,7 +6991,7 @@
     <row r="205" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6594900795694989</v>
+        <v>0.40007428641040266</v>
       </c>
       <c r="B205" s="2">
         <v>50</v>
@@ -7015,7 +7015,7 @@
     <row r="206" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62863544493946699</v>
+        <v>0.46103474082401241</v>
       </c>
       <c r="B206" s="2">
         <v>87</v>
@@ -7042,7 +7042,7 @@
     <row r="207" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78239180518152396</v>
+        <v>0.95721216741358062</v>
       </c>
       <c r="B207" s="2">
         <v>49</v>
@@ -7066,7 +7066,7 @@
     <row r="208" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91098766432995748</v>
+        <v>0.64056664877729996</v>
       </c>
       <c r="B208" s="2">
         <v>112</v>
@@ -7090,7 +7090,7 @@
     <row r="209" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89307704638406105</v>
+        <v>0.40140796486036479</v>
       </c>
       <c r="B209" s="2">
         <v>303</v>
@@ -7114,7 +7114,7 @@
     <row r="210" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5594360903106246E-2</v>
+        <v>0.16679579862196348</v>
       </c>
       <c r="B210" s="2">
         <v>172</v>
@@ -7141,7 +7141,7 @@
     <row r="211" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24164332380156006</v>
+        <v>0.79852425258600979</v>
       </c>
       <c r="B211" s="2">
         <v>6</v>
@@ -7168,7 +7168,7 @@
     <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85598882400553222</v>
+        <v>9.2010197254096315E-2</v>
       </c>
       <c r="B212" s="2">
         <v>200</v>
@@ -7192,7 +7192,7 @@
     <row r="213" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9114389841201922</v>
+        <v>0.8127617793594073</v>
       </c>
       <c r="B213" s="2">
         <v>252</v>
@@ -7216,7 +7216,7 @@
     <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87002929562686671</v>
+        <v>0.6487784212376132</v>
       </c>
       <c r="B214" s="2">
         <v>109</v>
@@ -7240,7 +7240,7 @@
     <row r="215" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36938383505985639</v>
+        <v>0.40680222889488293</v>
       </c>
       <c r="B215" s="2">
         <v>189</v>
@@ -7264,7 +7264,7 @@
     <row r="216" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14955123609276844</v>
+        <v>0.82969485370053631</v>
       </c>
       <c r="B216" s="2">
         <v>257</v>
@@ -7291,7 +7291,7 @@
     <row r="217" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38508932318518507</v>
+        <v>0.92915838374332904</v>
       </c>
       <c r="B217" s="2">
         <v>133</v>
@@ -7315,7 +7315,7 @@
     <row r="218" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52658896266862132</v>
+        <v>0.36488466841993783</v>
       </c>
       <c r="B218" s="2">
         <v>134</v>
@@ -7336,7 +7336,7 @@
     <row r="219" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56353754899627373</v>
+        <v>0.11649451335132821</v>
       </c>
       <c r="B219" s="2">
         <v>207</v>
@@ -7360,7 +7360,7 @@
     <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45626121134030262</v>
+        <v>0.65799063706165051</v>
       </c>
       <c r="B220" s="2">
         <v>15</v>
@@ -7387,7 +7387,7 @@
     <row r="221" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3311893033893738E-2</v>
+        <v>0.4659881276123099</v>
       </c>
       <c r="B221" s="2">
         <v>48</v>
@@ -7411,7 +7411,7 @@
     <row r="222" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98081866563277753</v>
+        <v>0.93500484790905836</v>
       </c>
       <c r="B222" s="2">
         <v>253</v>
@@ -7435,7 +7435,7 @@
     <row r="223" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69750591609834234</v>
+        <v>0.4065637568422471</v>
       </c>
       <c r="B223" s="2">
         <v>148</v>
@@ -7459,7 +7459,7 @@
     <row r="224" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4877980232118424</v>
+        <v>0.9848150636030818</v>
       </c>
       <c r="B224" s="2">
         <v>100</v>
@@ -7480,7 +7480,7 @@
     <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99541549878844848</v>
+        <v>0.67209855589862122</v>
       </c>
       <c r="B225" s="2">
         <v>65</v>
@@ -7501,7 +7501,7 @@
     <row r="226" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44573777754277866</v>
+        <v>0.47918585251493462</v>
       </c>
       <c r="B226" s="2">
         <v>9</v>
@@ -7528,7 +7528,7 @@
     <row r="227" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37924070901402529</v>
+        <v>0.71206462700339124</v>
       </c>
       <c r="B227" s="2">
         <v>36</v>
@@ -7555,7 +7555,7 @@
     <row r="228" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9956708231253799E-2</v>
+        <v>0.10137967432495232</v>
       </c>
       <c r="B228" s="2">
         <v>90</v>
@@ -7579,7 +7579,7 @@
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26215117080525641</v>
+        <v>0.70424476624030041</v>
       </c>
       <c r="B229" s="2">
         <v>314</v>
@@ -7603,7 +7603,7 @@
     <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81642057992465211</v>
+        <v>0.23886377585244456</v>
       </c>
       <c r="B230" s="2">
         <v>137</v>
@@ -7627,7 +7627,7 @@
     <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59580800254106092</v>
+        <v>0.36443622179260549</v>
       </c>
       <c r="B231" s="2">
         <v>120</v>
@@ -7651,7 +7651,7 @@
     <row r="232" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91618161902595097</v>
+        <v>0.43701597909469081</v>
       </c>
       <c r="B232" s="2">
         <v>310</v>
@@ -7675,7 +7675,7 @@
     <row r="233" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65134265406191794</v>
+        <v>0.1514789855003893</v>
       </c>
       <c r="B233" s="2">
         <v>3</v>
@@ -7699,7 +7699,7 @@
     <row r="234" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13572722471792364</v>
+        <v>4.651789270192308E-2</v>
       </c>
       <c r="B234" s="2">
         <v>291</v>
@@ -7723,7 +7723,7 @@
     <row r="235" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22472437561582514</v>
+        <v>0.94348347300512725</v>
       </c>
       <c r="B235" s="2">
         <v>171</v>
@@ -7747,7 +7747,7 @@
     <row r="236" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32015855869011323</v>
+        <v>0.70494301879592314</v>
       </c>
       <c r="B236" s="2">
         <v>195</v>
@@ -7771,7 +7771,7 @@
     <row r="237" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88156272812224112</v>
+        <v>0.4873773848615417</v>
       </c>
       <c r="B237" s="2">
         <v>34</v>
@@ -7792,7 +7792,7 @@
     <row r="238" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39466490132922594</v>
+        <v>0.30581518025119325</v>
       </c>
       <c r="B238" s="2">
         <v>272</v>
@@ -7813,7 +7813,7 @@
     <row r="239" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43219186642917429</v>
+        <v>0.33898749434397546</v>
       </c>
       <c r="B239" s="2">
         <v>51</v>
@@ -7840,7 +7840,7 @@
     <row r="240" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29136958144472214</v>
+        <v>3.3230621046754227E-2</v>
       </c>
       <c r="B240" s="2">
         <v>277</v>
@@ -7864,7 +7864,7 @@
     <row r="241" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58339432323035356</v>
+        <v>0.46008165707376558</v>
       </c>
       <c r="B241" s="2">
         <v>218</v>
@@ -7891,7 +7891,7 @@
     <row r="242" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44084850811264231</v>
+        <v>7.0978028378528735E-2</v>
       </c>
       <c r="B242" s="2">
         <v>283</v>
@@ -7915,7 +7915,7 @@
     <row r="243" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65885007907178872</v>
+        <v>0.51874353719045652</v>
       </c>
       <c r="B243" s="2">
         <v>143</v>
@@ -7936,7 +7936,7 @@
     <row r="244" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46106001538678709</v>
+        <v>0.50149139182565572</v>
       </c>
       <c r="B244" s="2">
         <v>177</v>
@@ -7960,7 +7960,7 @@
     <row r="245" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70722079294569418</v>
+        <v>4.6916360939791679E-2</v>
       </c>
       <c r="B245" s="2">
         <v>246</v>
@@ -7984,7 +7984,7 @@
     <row r="246" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81485348972411986</v>
+        <v>0.40152146244008868</v>
       </c>
       <c r="B246" s="2">
         <v>121</v>
@@ -8005,7 +8005,7 @@
     <row r="247" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26576023002914939</v>
+        <v>0.22952136283827018</v>
       </c>
       <c r="B247" s="2">
         <v>328</v>
@@ -8029,7 +8029,7 @@
     <row r="248" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77226651434428684</v>
+        <v>0.53748468257405746</v>
       </c>
       <c r="B248" s="2">
         <v>217</v>
@@ -8053,7 +8053,7 @@
     <row r="249" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1184570328806599</v>
+        <v>0.93052074007174157</v>
       </c>
       <c r="B249" s="2">
         <v>258</v>
@@ -8077,7 +8077,7 @@
     <row r="250" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1588893074876805E-2</v>
+        <v>0.51373773102583209</v>
       </c>
       <c r="B250" s="2">
         <v>244</v>
@@ -8104,7 +8104,7 @@
     <row r="251" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3539880936132063E-2</v>
+        <v>0.74548367144446637</v>
       </c>
       <c r="B251" s="2">
         <v>276</v>
@@ -8128,7 +8128,7 @@
     <row r="252" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73675064513872568</v>
+        <v>0.51669471787390764</v>
       </c>
       <c r="B252" s="2">
         <v>190</v>
@@ -8152,7 +8152,7 @@
     <row r="253" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43785485226333953</v>
+        <v>0.90254875718986927</v>
       </c>
       <c r="B253" s="2">
         <v>183</v>
@@ -8176,7 +8176,7 @@
     <row r="254" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36440237258935604</v>
+        <v>0.8805692469805928</v>
       </c>
       <c r="B254" s="2">
         <v>156</v>
@@ -8203,7 +8203,7 @@
     <row r="255" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13707683587825714</v>
+        <v>5.0044920107877977E-2</v>
       </c>
       <c r="B255" s="2">
         <v>173</v>
@@ -8233,7 +8233,7 @@
     <row r="256" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39340097148886566</v>
+        <v>0.65541530025101324</v>
       </c>
       <c r="B256" s="2">
         <v>62</v>
@@ -8254,7 +8254,7 @@
     <row r="257" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88885834882512271</v>
+        <v>0.60322372372069055</v>
       </c>
       <c r="B257" s="2">
         <v>37</v>
@@ -8281,7 +8281,7 @@
     <row r="258" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A321" ca="1" si="4">RAND()</f>
-        <v>0.74906234480672462</v>
+        <v>0.7264840103645529</v>
       </c>
       <c r="B258" s="2">
         <v>125</v>
@@ -8305,7 +8305,7 @@
     <row r="259" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.2147225967519546E-2</v>
+        <v>0.79050292750341855</v>
       </c>
       <c r="B259" s="2">
         <v>79</v>
@@ -8326,7 +8326,7 @@
     <row r="260" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45820051536446804</v>
+        <v>0.9772311368776595</v>
       </c>
       <c r="B260" s="2">
         <v>85</v>
@@ -8350,7 +8350,7 @@
     <row r="261" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5753453570244319</v>
+        <v>0.6452343464462178</v>
       </c>
       <c r="B261" s="2">
         <v>43</v>
@@ -8374,7 +8374,7 @@
     <row r="262" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11659589516363611</v>
+        <v>0.14518527306686146</v>
       </c>
       <c r="B262" s="2">
         <v>17</v>
@@ -8401,7 +8401,7 @@
     <row r="263" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60785015684957056</v>
+        <v>0.91177048546220141</v>
       </c>
       <c r="B263" s="2">
         <v>102</v>
@@ -8431,7 +8431,7 @@
     <row r="264" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33967290784887261</v>
+        <v>0.78838289270502504</v>
       </c>
       <c r="B264" s="2">
         <v>335</v>
@@ -8455,7 +8455,7 @@
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7502950044292287</v>
+        <v>0.94579628643049996</v>
       </c>
       <c r="B265" s="2">
         <v>198</v>
@@ -8479,7 +8479,7 @@
     <row r="266" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24456266280024264</v>
+        <v>0.75080222472140545</v>
       </c>
       <c r="B266" s="2">
         <v>78</v>
@@ -8506,7 +8506,7 @@
     <row r="267" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.3084110206033328E-2</v>
+        <v>4.9843354188674027E-2</v>
       </c>
       <c r="B267" s="2">
         <v>224</v>
@@ -8530,7 +8530,7 @@
     <row r="268" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28885165069870589</v>
+        <v>0.92470423155669179</v>
       </c>
       <c r="B268" s="2">
         <v>287</v>
@@ -8554,7 +8554,7 @@
     <row r="269" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26369875933152931</v>
+        <v>0.81609238241793347</v>
       </c>
       <c r="B269" s="2">
         <v>25</v>
@@ -8581,7 +8581,7 @@
     <row r="270" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35396067168732726</v>
+        <v>0.63591479532056472</v>
       </c>
       <c r="B270" s="2">
         <v>280</v>
@@ -8605,7 +8605,7 @@
     <row r="271" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53116462415822752</v>
+        <v>0.50112640049810731</v>
       </c>
       <c r="B271" s="2">
         <v>131</v>
@@ -8626,7 +8626,7 @@
     <row r="272" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40745298357495763</v>
+        <v>0.23787214715565008</v>
       </c>
       <c r="B272" s="2">
         <v>47</v>
@@ -8653,7 +8653,7 @@
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6679371954853046E-2</v>
+        <v>0.74460403781685347</v>
       </c>
       <c r="B273" s="2">
         <v>12</v>
@@ -8680,7 +8680,7 @@
     <row r="274" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1371216302180138E-2</v>
+        <v>0.43519812100018618</v>
       </c>
       <c r="B274" s="2">
         <v>210</v>
@@ -8704,7 +8704,7 @@
     <row r="275" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.0054407750553134E-2</v>
+        <v>0.93977839565224675</v>
       </c>
       <c r="B275" s="2">
         <v>329</v>
@@ -8728,7 +8728,7 @@
     <row r="276" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20333813880364116</v>
+        <v>0.44805328389919774</v>
       </c>
       <c r="B276" s="2">
         <v>168</v>
@@ -8752,7 +8752,7 @@
     <row r="277" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13531546989743115</v>
+        <v>0.26978866287775938</v>
       </c>
       <c r="B277" s="2">
         <v>319</v>
@@ -8773,7 +8773,7 @@
     <row r="278" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77422423496799508</v>
+        <v>0.69504961939427834</v>
       </c>
       <c r="B278" s="2">
         <v>126</v>
@@ -8797,7 +8797,7 @@
     <row r="279" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14429437973185411</v>
+        <v>0.86871762959381471</v>
       </c>
       <c r="B279" s="2">
         <v>238</v>
@@ -8821,7 +8821,7 @@
     <row r="280" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39398984603955178</v>
+        <v>0.11228597390905903</v>
       </c>
       <c r="B280" s="2">
         <v>290</v>
@@ -8845,7 +8845,7 @@
     <row r="281" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.79362216794864626</v>
+        <v>0.15761766327208204</v>
       </c>
       <c r="B281" s="2">
         <v>41</v>
@@ -8866,7 +8866,7 @@
     <row r="282" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98238781326532376</v>
+        <v>0.98627393193563717</v>
       </c>
       <c r="B282" s="2">
         <v>205</v>
@@ -8890,7 +8890,7 @@
     <row r="283" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50647540876084762</v>
+        <v>6.3765469729886615E-2</v>
       </c>
       <c r="B283" s="2">
         <v>300</v>
@@ -8914,7 +8914,7 @@
     <row r="284" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1937842164554437E-2</v>
+        <v>0.62851510749538175</v>
       </c>
       <c r="B284" s="2">
         <v>316</v>
@@ -8935,7 +8935,7 @@
     <row r="285" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86225541574058329</v>
+        <v>0.24573997936006386</v>
       </c>
       <c r="B285" s="2">
         <v>269</v>
@@ -8962,7 +8962,7 @@
     <row r="286" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69706212424873115</v>
+        <v>7.4337461812093553E-2</v>
       </c>
       <c r="B286" s="2">
         <v>219</v>
@@ -8986,7 +8986,7 @@
     <row r="287" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96610059873022203</v>
+        <v>0.6782210891620547</v>
       </c>
       <c r="B287" s="2">
         <v>86</v>
@@ -9010,7 +9010,7 @@
     <row r="288" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2886716615765148</v>
+        <v>7.3774006087327093E-3</v>
       </c>
       <c r="B288" s="2">
         <v>295</v>
@@ -9034,7 +9034,7 @@
     <row r="289" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.196599619544215E-3</v>
+        <v>0.7282692157002405</v>
       </c>
       <c r="B289" s="2">
         <v>147</v>
@@ -9058,7 +9058,7 @@
     <row r="290" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89092444943961679</v>
+        <v>7.6154977398201651E-2</v>
       </c>
       <c r="B290" s="2">
         <v>81</v>
@@ -9082,7 +9082,7 @@
     <row r="291" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36523206463823932</v>
+        <v>0.17404287161079046</v>
       </c>
       <c r="B291" s="2">
         <v>286</v>
@@ -9106,7 +9106,7 @@
     <row r="292" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86867836341449112</v>
+        <v>0.31317849079835247</v>
       </c>
       <c r="B292" s="2">
         <v>325</v>
@@ -9130,7 +9130,7 @@
     <row r="293" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59421515262457925</v>
+        <v>0.61674287594915622</v>
       </c>
       <c r="B293" s="2">
         <v>146</v>
@@ -9154,7 +9154,7 @@
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.7256316030498171E-2</v>
+        <v>0.57513226932561379</v>
       </c>
       <c r="B294" s="2">
         <v>159</v>
@@ -9178,7 +9178,7 @@
     <row r="295" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60008774753976923</v>
+        <v>0.31163248936038479</v>
       </c>
       <c r="B295" s="2">
         <v>139</v>
@@ -9199,7 +9199,7 @@
     <row r="296" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62471553224698939</v>
+        <v>0.1574901776376173</v>
       </c>
       <c r="B296" s="2">
         <v>21</v>
@@ -9226,7 +9226,7 @@
     <row r="297" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38049489192626373</v>
+        <v>0.89848291325733609</v>
       </c>
       <c r="B297" s="2">
         <v>202</v>
@@ -9250,7 +9250,7 @@
     <row r="298" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59080293291596708</v>
+        <v>0.62577785513687545</v>
       </c>
       <c r="B298" s="2">
         <v>138</v>
@@ -9274,7 +9274,7 @@
     <row r="299" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24546031718821359</v>
+        <v>0.69997789513947539</v>
       </c>
       <c r="B299" s="2">
         <v>267</v>
@@ -9298,7 +9298,7 @@
     <row r="300" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9304672728117328</v>
+        <v>0.40852036598363195</v>
       </c>
       <c r="B300" s="2">
         <v>140</v>
@@ -9319,7 +9319,7 @@
     <row r="301" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95902789080662654</v>
+        <v>0.98384285975805796</v>
       </c>
       <c r="B301" s="2">
         <v>284</v>
@@ -9343,7 +9343,7 @@
     <row r="302" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5524673554269941</v>
+        <v>0.26584695893696875</v>
       </c>
       <c r="B302" s="2">
         <v>321</v>
@@ -9367,7 +9367,7 @@
     <row r="303" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16595440888783231</v>
+        <v>0.26908143492941161</v>
       </c>
       <c r="B303" s="2">
         <v>72</v>
@@ -9391,7 +9391,7 @@
     <row r="304" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51002972261952806</v>
+        <v>0.52788668159164531</v>
       </c>
       <c r="B304" s="2">
         <v>115</v>
@@ -9415,7 +9415,7 @@
     <row r="305" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.3736872258509019E-2</v>
+        <v>2.4190362180116831E-2</v>
       </c>
       <c r="B305" s="2">
         <v>254</v>
@@ -9439,7 +9439,7 @@
     <row r="306" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66875398186310864</v>
+        <v>0.14769490883604275</v>
       </c>
       <c r="B306" s="2">
         <v>231</v>
@@ -9463,7 +9463,7 @@
     <row r="307" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4469105192184466</v>
+        <v>0.18312254028831765</v>
       </c>
       <c r="B307" s="2">
         <v>233</v>
@@ -9487,7 +9487,7 @@
     <row r="308" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92651370603408401</v>
+        <v>0.2759008842816808</v>
       </c>
       <c r="B308" s="2">
         <v>227</v>
@@ -9511,7 +9511,7 @@
     <row r="309" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94003656237376021</v>
+        <v>0.36764570517761164</v>
       </c>
       <c r="B309" s="2">
         <v>77</v>
@@ -9538,7 +9538,7 @@
     <row r="310" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2983787547094976E-2</v>
+        <v>0.50275552686140101</v>
       </c>
       <c r="B310" s="2">
         <v>226</v>
@@ -9568,7 +9568,7 @@
     <row r="311" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63944530155064694</v>
+        <v>0.69338000106562048</v>
       </c>
       <c r="B311" s="2">
         <v>154</v>
@@ -9592,7 +9592,7 @@
     <row r="312" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57442645128716618</v>
+        <v>0.97699508551806802</v>
       </c>
       <c r="B312" s="2">
         <v>59</v>
@@ -9616,7 +9616,7 @@
     <row r="313" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65349759426443577</v>
+        <v>0.70548820791330302</v>
       </c>
       <c r="B313" s="2">
         <v>27</v>
@@ -9643,7 +9643,7 @@
     <row r="314" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80304100750499752</v>
+        <v>0.37333147255403054</v>
       </c>
       <c r="B314" s="2">
         <v>308</v>
@@ -9667,7 +9667,7 @@
     <row r="315" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1955187699242686E-2</v>
+        <v>0.32093112244860955</v>
       </c>
       <c r="B315" s="2">
         <v>315</v>
@@ -9694,7 +9694,7 @@
     <row r="316" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2114299571624717</v>
+        <v>0.8495490280533402</v>
       </c>
       <c r="B316" s="2">
         <v>323</v>
@@ -9721,7 +9721,7 @@
     <row r="317" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11756167363023973</v>
+        <v>0.56554160358989325</v>
       </c>
       <c r="B317" s="2">
         <v>142</v>
@@ -9745,7 +9745,7 @@
     <row r="318" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73632775630523883</v>
+        <v>0.8290000007902959</v>
       </c>
       <c r="B318" s="2">
         <v>2</v>
@@ -9769,7 +9769,7 @@
     <row r="319" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33418204626550818</v>
+        <v>0.97567698206688958</v>
       </c>
       <c r="B319" s="2">
         <v>250</v>
@@ -9793,7 +9793,7 @@
     <row r="320" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60376904621165428</v>
+        <v>0.82152840372821312</v>
       </c>
       <c r="B320" s="2">
         <v>299</v>
@@ -9817,7 +9817,7 @@
     <row r="321" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99790698131843381</v>
+        <v>0.10485017355742643</v>
       </c>
       <c r="B321" s="2">
         <v>220</v>
@@ -9841,7 +9841,7 @@
     <row r="322" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <f t="shared" ref="A322:A341" ca="1" si="5">RAND()</f>
-        <v>0.57305025920038055</v>
+        <v>0.55693944590488131</v>
       </c>
       <c r="B322" s="2">
         <v>275</v>
@@ -9865,7 +9865,7 @@
     <row r="323" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0360048102064985E-2</v>
+        <v>0.1439553156357084</v>
       </c>
       <c r="B323" s="2">
         <v>122</v>
@@ -9886,7 +9886,7 @@
     <row r="324" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91238499897501124</v>
+        <v>0.86068628042025508</v>
       </c>
       <c r="B324" s="2">
         <v>114</v>
@@ -9913,7 +9913,7 @@
     <row r="325" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37365246501710359</v>
+        <v>0.97305069816405243</v>
       </c>
       <c r="B325" s="2">
         <v>61</v>
@@ -9934,7 +9934,7 @@
     <row r="326" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51448404086704025</v>
+        <v>0.42450462704945346</v>
       </c>
       <c r="B326" s="2">
         <v>33</v>
@@ -9961,7 +9961,7 @@
     <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15179518232535438</v>
+        <v>0.95871419841989913</v>
       </c>
       <c r="B327" s="2">
         <v>124</v>
@@ -9988,7 +9988,7 @@
     <row r="328" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73911500826520427</v>
+        <v>0.99151490314157253</v>
       </c>
       <c r="B328" s="2">
         <v>82</v>
@@ -10009,7 +10009,7 @@
     <row r="329" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44601905404893194</v>
+        <v>0.46002310510227107</v>
       </c>
       <c r="B329" s="2">
         <v>129</v>
@@ -10030,7 +10030,7 @@
     <row r="330" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4663950596557056</v>
+        <v>0.40802382536000104</v>
       </c>
       <c r="B330" s="2">
         <v>107</v>
@@ -10054,7 +10054,7 @@
     <row r="331" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4340007242604811E-2</v>
+        <v>0.18086831196393927</v>
       </c>
       <c r="B331" s="2">
         <v>249</v>
@@ -10081,7 +10081,7 @@
     <row r="332" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88701414310946336</v>
+        <v>3.0140792635245939E-2</v>
       </c>
       <c r="B332" s="2">
         <v>174</v>
@@ -10108,7 +10108,7 @@
     <row r="333" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25541792209118175</v>
+        <v>0.52090422345713316</v>
       </c>
       <c r="B333" s="2">
         <v>18</v>
@@ -10132,7 +10132,7 @@
     <row r="334" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31739406964659966</v>
+        <v>0.27000326100681094</v>
       </c>
       <c r="B334" s="2">
         <v>311</v>
@@ -10156,7 +10156,7 @@
     <row r="335" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1103499789878741E-2</v>
+        <v>0.32152192777082989</v>
       </c>
       <c r="B335" s="2">
         <v>241</v>
@@ -10180,7 +10180,7 @@
     <row r="336" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12468260483828386</v>
+        <v>0.86865723900566671</v>
       </c>
       <c r="B336" s="2">
         <v>88</v>
@@ -10207,7 +10207,7 @@
     <row r="337" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63872131832160361</v>
+        <v>8.1873238818133132E-2</v>
       </c>
       <c r="B337" s="2">
         <v>117</v>
@@ -10231,7 +10231,7 @@
     <row r="338" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31113037160522983</v>
+        <v>0.50318683712483803</v>
       </c>
       <c r="B338" s="2">
         <v>223</v>
@@ -10258,7 +10258,7 @@
     <row r="339" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.78785925063807483</v>
+        <v>0.17253499914924342</v>
       </c>
       <c r="B339" s="2">
         <v>251</v>
@@ -10282,7 +10282,7 @@
     <row r="340" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61937848143278884</v>
+        <v>0.31896912800309074</v>
       </c>
       <c r="B340" s="2">
         <v>203</v>
@@ -10306,7 +10306,7 @@
     <row r="341" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68495316739319512</v>
+        <v>0.44716052497629266</v>
       </c>
       <c r="B341" s="2">
         <v>152</v>
@@ -10603,7 +10603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+    <sheetView topLeftCell="A327" workbookViewId="0">
       <selection activeCell="A403" sqref="A342:XFD403"/>
     </sheetView>
   </sheetViews>
